--- a/temp/add.xlsx
+++ b/temp/add.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aravi\Documents\UiPath\ExcelAutomation\temp\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E17E34CE-D6F7-4DE3-B0F4-9181B2BFED7F}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B11795FD-55A8-43D5-9367-2D84125DD994}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView minimized="1" xWindow="19520" yWindow="320" windowWidth="14400" windowHeight="7550" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -359,7 +359,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
